--- a/Python/Leetcode_Target.xlsx
+++ b/Python/Leetcode_Target.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9849731-26D5-4D74-B4BA-0632F6087247}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F43BBA-C6D0-4403-B014-098843B49BDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="487">
   <si>
     <t>基础</t>
   </si>
@@ -1563,6 +1563,10 @@
   </si>
   <si>
     <t xml:space="preserve"> divide/ window</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>V---</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1923,7 +1927,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2129,6 +2133,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -21110,16 +21117,16 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="topRight" activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="40" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="10" customWidth="1"/>
@@ -21518,6 +21525,9 @@
       </c>
       <c r="E24" s="14"/>
       <c r="F24"/>
+      <c r="G24" s="77" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
@@ -21532,6 +21542,9 @@
       </c>
       <c r="E25" s="14"/>
       <c r="F25"/>
+      <c r="G25" s="2" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
@@ -21546,6 +21559,9 @@
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
+      <c r="G26" s="2" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
@@ -21558,6 +21574,9 @@
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
+      <c r="G27" s="2" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
@@ -21570,6 +21589,9 @@
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
+      <c r="G28" s="2" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
@@ -21584,6 +21606,9 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
+      <c r="G29" s="2" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
@@ -21598,6 +21623,9 @@
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
+      <c r="G30" s="17" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="31" spans="1:8" s="17" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
@@ -21613,7 +21641,10 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="17" t="s">
-        <v>440</v>
+        <v>458</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21627,6 +21658,9 @@
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
+      <c r="G32" s="17" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
@@ -22160,7 +22194,7 @@
       <c r="F77" s="14"/>
       <c r="G77" s="2">
         <f>COUNTA(G3:G75)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Python/Leetcode_Target.xlsx
+++ b/Python/Leetcode_Target.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F43BBA-C6D0-4403-B014-098843B49BDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7BF85E-32CD-46D0-9792-E0821A17CE0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="747" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="28" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="LinkedList" sheetId="11" r:id="rId7"/>
     <sheet name="Array" sheetId="1" r:id="rId8"/>
     <sheet name="String" sheetId="4" r:id="rId9"/>
-    <sheet name="BinarySearch" sheetId="12" r:id="rId10"/>
-    <sheet name="Matrix" sheetId="13" r:id="rId11"/>
-    <sheet name="StackHeap" sheetId="17" r:id="rId12"/>
+    <sheet name="StackHeap" sheetId="17" r:id="rId10"/>
+    <sheet name="BinarySearch" sheetId="12" r:id="rId11"/>
+    <sheet name="Matrix" sheetId="13" r:id="rId12"/>
     <sheet name="Graph" sheetId="22" r:id="rId13"/>
     <sheet name="Design" sheetId="26" r:id="rId14"/>
     <sheet name="Random" sheetId="21" r:id="rId15"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="488">
   <si>
     <t>基础</t>
   </si>
@@ -1567,6 +1567,10 @@
   </si>
   <si>
     <t>V---</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -8536,6 +8540,823 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:G88"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="97" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>155</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>232</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>225</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>150</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>71</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>394</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>224</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>227</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>385</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>84</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="52"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>85</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="26"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>341</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>215</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>347</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>313</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>373</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>218</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>295</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B24" s="14">
+        <f>COUNTA(B3:B22)</f>
+        <v>18</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" ht="52.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="49">
+        <v>23</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50" t="s">
+        <v>412</v>
+      </c>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="54"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I77"/>
   <sheetViews>
@@ -9289,11 +10110,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="102" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="102" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C30" sqref="C30"/>
       <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
@@ -10061,823 +10882,6 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:G88"/>
-  <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D23" sqref="D23"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>155</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="47"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>232</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>225</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>150</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>71</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>394</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="47"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>224</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>227</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>385</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>84</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="52"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>85</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="26"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>341</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="32"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>215</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
-        <v>347</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
-        <v>313</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <v>373</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>218</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="47"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>295</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="47"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B24" s="14">
-        <f>COUNTA(B3:B22)</f>
-        <v>18</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" ht="52.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49">
-        <v>23</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>296</v>
-      </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50" t="s">
-        <v>412</v>
-      </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="54"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-    </row>
-    <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-    </row>
-    <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-    </row>
-    <row r="54" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-    </row>
-    <row r="55" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="57" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-    </row>
-    <row r="58" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-    </row>
-    <row r="59" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-    </row>
-    <row r="60" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-    </row>
-    <row r="62" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-    </row>
-    <row r="66" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-    </row>
-    <row r="69" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-    </row>
-    <row r="70" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-    </row>
-    <row r="71" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-    </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-    </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-    </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-    </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19009,7 +19013,7 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
@@ -21116,12 +21120,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="topRight" activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21662,7 +21666,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>128</v>
       </c>
@@ -21670,11 +21674,16 @@
         <v>33</v>
       </c>
       <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>487</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>164</v>
       </c>
@@ -21687,8 +21696,11 @@
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>287</v>
       </c>
@@ -21699,8 +21711,14 @@
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>135</v>
       </c>
@@ -21714,7 +21732,7 @@
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>330</v>
       </c>
@@ -21726,7 +21744,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -21734,7 +21752,7 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>39</v>
       </c>
@@ -21744,7 +21762,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>4</v>
       </c>
@@ -21761,7 +21779,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>321</v>
       </c>
@@ -21773,7 +21791,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
     </row>
-    <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>327</v>
       </c>
@@ -21785,8 +21803,8 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -21794,7 +21812,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
         <v>44</v>
       </c>
@@ -21804,7 +21822,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>56</v>
       </c>
@@ -21818,7 +21836,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
     </row>
-    <row r="47" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>57</v>
       </c>
@@ -21832,7 +21850,7 @@
       <c r="E47" s="14"/>
       <c r="F47"/>
     </row>
-    <row r="48" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>252</v>
       </c>
@@ -21887,7 +21905,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>50</v>
       </c>
@@ -22194,7 +22212,7 @@
       <c r="F77" s="14"/>
       <c r="G77" s="2">
         <f>COUNTA(G3:G75)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22242,9 +22260,9 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22983,7 +23001,9 @@
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
-      <c r="G52"/>
+      <c r="G52" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
@@ -23290,7 +23310,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="14">
         <f>COUNTA(G4:G72)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Python/Leetcode_Target.xlsx
+++ b/Python/Leetcode_Target.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7BF85E-32CD-46D0-9792-E0821A17CE0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB36ADCE-BEDB-41A4-ACF1-C78658D0F432}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="747" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="28" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="491">
   <si>
     <t>基础</t>
   </si>
@@ -1572,13 +1572,23 @@
   <si>
     <t>set</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HH</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t> Binary Search</t>
+  </si>
+  <si>
+    <t> Camelcase Matching</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1677,6 +1687,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1931,7 +1947,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2139,6 +2155,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10114,8 +10133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="102" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="102" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C30" sqref="C30"/>
       <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
@@ -18963,10 +18982,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97969A-6FF8-46D0-ACE9-17A56CDC08D2}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18999,6 +19018,22 @@
       </c>
       <c r="B3" t="s">
         <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="78">
+        <v>704</v>
+      </c>
+      <c r="B4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="78">
+        <v>1023</v>
+      </c>
+      <c r="B5" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -21121,11 +21156,11 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="topRight" activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21731,6 +21766,9 @@
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
+      <c r="G36" s="17" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
@@ -21740,9 +21778,14 @@
         <v>38</v>
       </c>
       <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="D37" s="14" t="s">
+        <v>488</v>
+      </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
+      <c r="G37" s="17" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
@@ -21775,9 +21818,7 @@
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="47" t="s">
-        <v>440</v>
-      </c>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
@@ -22212,7 +22253,7 @@
       <c r="F77" s="14"/>
       <c r="G77" s="2">
         <f>COUNTA(G3:G75)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Python/Leetcode_Target.xlsx
+++ b/Python/Leetcode_Target.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB36ADCE-BEDB-41A4-ACF1-C78658D0F432}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF9DC22-8A71-4E2B-8035-E917E3B228BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="28" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="491">
   <si>
     <t>基础</t>
   </si>
@@ -18984,7 +18984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97969A-6FF8-46D0-ACE9-17A56CDC08D2}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -21155,12 +21155,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="topRight" activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
-      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21818,7 +21818,9 @@
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="47"/>
+      <c r="G40" s="47" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
@@ -21831,6 +21833,9 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
+      <c r="G41" s="2" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
@@ -21876,6 +21881,9 @@
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
+      <c r="G46" s="10" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
@@ -22253,7 +22261,7 @@
       <c r="F77" s="14"/>
       <c r="G77" s="2">
         <f>COUNTA(G3:G75)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Python/Leetcode_Target.xlsx
+++ b/Python/Leetcode_Target.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF9DC22-8A71-4E2B-8035-E917E3B228BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7357B523-77AB-49AD-965A-0F74AB7DBF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21156,11 +21156,11 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="topRight" activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21169,7 +21169,7 @@
     <col min="2" max="2" width="40" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="10" customWidth="1"/>
     <col min="6" max="6" width="62" style="10" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="10"/>
@@ -21898,6 +21898,9 @@
       </c>
       <c r="E47" s="14"/>
       <c r="F47"/>
+      <c r="G47" s="10" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
@@ -21930,9 +21933,7 @@
         <v>415</v>
       </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="47" t="s">
-        <v>440</v>
-      </c>
+      <c r="G49" s="47"/>
     </row>
     <row r="50" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14">

--- a/Python/Leetcode_Target.xlsx
+++ b/Python/Leetcode_Target.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7357B523-77AB-49AD-965A-0F74AB7DBF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09E1E04-060D-4FB1-816A-B660B3BB770B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="28" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="491">
   <si>
     <t>基础</t>
   </si>
@@ -21155,12 +21155,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="topRight" activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
-      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomRight" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22002,6 +22002,9 @@
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
+      <c r="G55" s="10" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="56" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
@@ -22016,6 +22019,9 @@
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
+      <c r="G56" s="10" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="57" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
@@ -22262,7 +22268,7 @@
       <c r="F77" s="14"/>
       <c r="G77" s="2">
         <f>COUNTA(G3:G75)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22309,10 +22315,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Python/Leetcode_Target.xlsx
+++ b/Python/Leetcode_Target.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09E1E04-060D-4FB1-816A-B660B3BB770B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56A8EB5-E9C9-4170-870F-70CDB493FFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="28" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="492">
   <si>
     <t>基础</t>
   </si>
@@ -1582,6 +1582,10 @@
   </si>
   <si>
     <t> Camelcase Matching</t>
+  </si>
+  <si>
+    <t>LOCK</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -21155,12 +21159,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="topRight" activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
-      <selection pane="bottomRight" activeCell="G57" sqref="G57"/>
+      <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21990,6 +21994,9 @@
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
+      <c r="G54" s="10" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
@@ -22034,6 +22041,9 @@
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
+      <c r="G57" s="10" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="58" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
@@ -22046,6 +22056,9 @@
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
+      <c r="G58" s="10" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="59" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
@@ -22062,6 +22075,9 @@
         <v>415</v>
       </c>
       <c r="F59" s="14"/>
+      <c r="G59" s="10" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="60" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
@@ -22268,7 +22284,7 @@
       <c r="F77" s="14"/>
       <c r="G77" s="2">
         <f>COUNTA(G3:G75)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22315,8 +22331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>

--- a/Python/Leetcode_Target.xlsx
+++ b/Python/Leetcode_Target.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56A8EB5-E9C9-4170-870F-70CDB493FFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA397021-47D8-4E2D-B912-F087A07CE9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2520" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="28" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="492">
   <si>
     <t>基础</t>
   </si>
@@ -21160,11 +21160,11 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="topRight" activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
-      <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21922,7 +21922,7 @@
       </c>
       <c r="F48" s="14"/>
     </row>
-    <row r="49" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>253</v>
       </c>
@@ -21939,7 +21939,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="47"/>
     </row>
-    <row r="50" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>352</v>
       </c>
@@ -21951,7 +21951,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -21959,7 +21959,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>50</v>
       </c>
@@ -21969,7 +21969,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>239</v>
       </c>
@@ -21983,7 +21983,7 @@
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>325</v>
       </c>
@@ -21998,7 +21998,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>209</v>
       </c>
@@ -22013,7 +22013,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>238</v>
       </c>
@@ -22030,7 +22030,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>152</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>228</v>
       </c>
@@ -22060,7 +22060,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>163</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -22087,7 +22087,7 @@
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
     </row>
-    <row r="61" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
         <v>60</v>
       </c>
@@ -22097,7 +22097,7 @@
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
     </row>
-    <row r="62" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>88</v>
       </c>
@@ -22112,8 +22112,14 @@
       </c>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>75</v>
       </c>
@@ -22124,8 +22130,11 @@
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
-    </row>
-    <row r="64" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>283</v>
       </c>
@@ -22138,6 +22147,9 @@
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
+      <c r="G64" s="2" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="65" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
@@ -22150,6 +22162,9 @@
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
+      <c r="G65" s="2" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="66" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
@@ -22284,7 +22299,7 @@
       <c r="F77" s="14"/>
       <c r="G77" s="2">
         <f>COUNTA(G3:G75)</f>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Python/Leetcode_Target.xlsx
+++ b/Python/Leetcode_Target.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA397021-47D8-4E2D-B912-F087A07CE9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6B5AB2-7897-44D5-8732-84C7CB7A1F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2520" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="3165" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="28" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="494">
   <si>
     <t>基础</t>
   </si>
@@ -1585,6 +1585,14 @@
   </si>
   <si>
     <t>LOCK</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slicing</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>same solution will be fine</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -21160,11 +21168,11 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="topRight" activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
-      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomRight" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22177,6 +22185,9 @@
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
+      <c r="G66" s="2" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="67" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
@@ -22188,7 +22199,12 @@
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
-      <c r="F67" s="14"/>
+      <c r="F67" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="68" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F68" s="14"/>
@@ -22217,7 +22233,7 @@
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="62" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22232,7 +22248,12 @@
         <v>413</v>
       </c>
       <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
+      <c r="F71" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="72" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
@@ -22246,9 +22267,11 @@
         <v>417</v>
       </c>
       <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
+      <c r="F72" s="11" t="s">
+        <v>471</v>
+      </c>
       <c r="G72" s="47" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22261,6 +22284,9 @@
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="F73" s="14"/>
+      <c r="G73" s="2" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="74" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
@@ -22272,6 +22298,9 @@
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="F74" s="14"/>
+      <c r="G74" s="2" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="75" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
@@ -22284,6 +22313,9 @@
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
+      <c r="G75" s="2" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F76" s="14"/>
@@ -22299,7 +22331,7 @@
       <c r="F77" s="14"/>
       <c r="G77" s="2">
         <f>COUNTA(G3:G75)</f>
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22328,6 +22360,9 @@
     </row>
     <row r="80" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F80" s="14"/>
+      <c r="G80" s="10" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="81" spans="6:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F81" s="14"/>

--- a/Python/Leetcode_Target.xlsx
+++ b/Python/Leetcode_Target.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6B5AB2-7897-44D5-8732-84C7CB7A1F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1046DD8E-234F-427E-8F6B-70AC3AC11D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="3165" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="3165" windowWidth="21600" windowHeight="11385" tabRatio="747" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="28" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="494">
   <si>
     <t>基础</t>
   </si>
@@ -8574,10 +8574,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="97" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8637,7 +8637,9 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="47"/>
+      <c r="G3" s="47" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -8650,6 +8652,9 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
+      <c r="G4" s="10" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
@@ -8662,6 +8667,9 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="26"/>
+      <c r="G5" s="10" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
@@ -8674,6 +8682,9 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="26"/>
+      <c r="G6" s="2" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
@@ -8686,6 +8697,9 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="26"/>
+      <c r="G7" s="2" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
@@ -9391,7 +9405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
@@ -10146,7 +10160,7 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="102" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C30" sqref="C30"/>
       <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
@@ -12491,7 +12505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="119" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
@@ -13133,7 +13147,7 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
@@ -21167,12 +21181,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="topRight" activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
-      <selection pane="bottomRight" activeCell="G77" sqref="G77"/>
+      <selection pane="bottomRight" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22382,7 +22396,7 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
